--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF77B6-6B1D-4D83-B3CE-07A0E118EBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299A9DCD-0C0C-40C0-B2AD-2A4879535243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -2030,12 +2030,6 @@
     <t>08/07/2025</t>
   </si>
   <si>
-    <t>hosp2525</t>
-  </si>
-  <si>
-    <t>RTIAB</t>
-  </si>
-  <si>
     <t>release.manoj</t>
   </si>
   <si>
@@ -2080,6 +2074,12 @@
   </si>
   <si>
     <t>Forearm DEXA scan</t>
+  </si>
+  <si>
+    <t>hosp2526</t>
+  </si>
+  <si>
+    <t>releaseA</t>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4FC9F-2982-4FD6-8BD6-4330FF8DA2DE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,32 +2480,32 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B2" t="s">
-        <v>644</v>
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>641</v>
+      </c>
+      <c r="B4" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{03C77328-BA61-4FC6-A325-FBFA15AC6C52}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{03C77328-BA61-4FC6-A325-FBFA15AC6C52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2598,7 +2598,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF0DF87-67F2-4E87-A7EE-C4365800D834}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,13 +3314,13 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>428</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>302</v>
@@ -3329,7 +3329,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3449,7 +3449,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3512,7 +3512,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3563,7 +3563,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/07/2025</v>
+        <v>20/07/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/07/2025</v>
+        <v>20/07/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>198</v>
@@ -3847,7 +3847,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>368</v>
@@ -3954,11 +3954,11 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -4024,7 +4024,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4098,7 +4098,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4224,7 +4224,7 @@
         <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4363,7 +4363,7 @@
         <v>244</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4461,7 +4461,7 @@
         <v>244</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s">
         <v>255</v>
@@ -4922,7 +4922,7 @@
         <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
@@ -5094,7 +5094,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>269</v>
@@ -5143,7 +5143,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>272</v>
@@ -5188,7 +5188,7 @@
         <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" t="s">
         <v>273</v>
@@ -5233,7 +5233,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>278</v>
@@ -5281,7 +5281,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>277</v>
@@ -5326,7 +5326,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" t="s">
         <v>279</v>
@@ -5414,7 +5414,7 @@
         <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>205</v>
@@ -5555,7 +5555,7 @@
         <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>310</v>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/07/2025</v>
+        <v>20/07/2025</v>
       </c>
       <c r="C2" t="s">
         <v>410</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B2" t="s">
         <v>610</v>
@@ -8357,7 +8357,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8427,7 +8427,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -8448,6 +8448,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8702,27 +8722,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8739,23 +8758,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299A9DCD-0C0C-40C0-B2AD-2A4879535243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D0A0E-DB82-4124-AB50-CC805973ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="656">
   <si>
     <t>username</t>
   </si>
@@ -947,9 +947,6 @@
     <t>Delete Lifestyle</t>
   </si>
   <si>
-    <t>saurabh.auto</t>
-  </si>
-  <si>
     <t>08/05/2024</t>
   </si>
   <si>
@@ -1383,9 +1380,6 @@
   </si>
   <si>
     <t>18/06/2025</t>
-  </si>
-  <si>
-    <t>Saurabh@2025</t>
   </si>
   <si>
     <t>medi_form</t>
@@ -2460,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4FC9F-2982-4FD6-8BD6-4330FF8DA2DE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,32 +2474,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>426</v>
+        <v>639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{03C77328-BA61-4FC6-A325-FBFA15AC6C52}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{03C77328-BA61-4FC6-A325-FBFA15AC6C52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2598,7 +2591,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -2993,16 +2986,16 @@
         <v>159</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
         <v>188</v>
@@ -3154,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF0DF87-67F2-4E87-A7EE-C4365800D834}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3314,22 +3307,22 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3449,7 +3442,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3512,7 +3505,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3563,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3642,10 +3635,10 @@
         <v>194</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3721,10 +3714,10 @@
         <v>194</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3847,19 +3840,19 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>214</v>
@@ -3954,7 +3947,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
@@ -3964,7 +3957,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>214</v>
@@ -4024,7 +4017,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4098,7 +4091,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4224,7 +4217,7 @@
         <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4289,7 +4282,7 @@
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4363,7 +4356,7 @@
         <v>244</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4461,7 +4454,7 @@
         <v>244</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4520,7 +4513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
         <v>255</v>
@@ -4827,7 +4820,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -4922,13 +4915,13 @@
         <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -4946,10 +4939,10 @@
         <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L2" t="s">
         <v>176</v>
@@ -5094,7 +5087,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>269</v>
@@ -5143,7 +5136,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>272</v>
@@ -5188,7 +5181,7 @@
         <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" t="s">
         <v>273</v>
@@ -5233,7 +5226,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>278</v>
@@ -5281,7 +5274,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>277</v>
@@ -5326,7 +5319,7 @@
         <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s">
         <v>279</v>
@@ -5364,69 +5357,69 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
         <v>288</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>289</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>291</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>292</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>293</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>294</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>295</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>296</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>297</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>298</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>299</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5435,28 +5428,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5493,81 +5486,81 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
         <v>288</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>289</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>291</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>292</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>293</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>294</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>295</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>296</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>297</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>298</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>299</v>
       </c>
-      <c r="Q1" t="s">
-        <v>300</v>
-      </c>
       <c r="R1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S1" t="s">
         <v>313</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>314</v>
       </c>
-      <c r="T1" t="s">
-        <v>315</v>
-      </c>
       <c r="U1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
         <v>310</v>
-      </c>
-      <c r="D2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" t="s">
-        <v>311</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5576,40 +5569,40 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5642,13 +5635,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5656,22 +5649,22 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>325</v>
-      </c>
-      <c r="F2" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5720,7 +5713,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5792,7 +5785,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -5876,13 +5869,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5890,22 +5883,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5937,10 +5930,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
         <v>321</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5975,21 +5968,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6025,21 +6018,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6075,13 +6068,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6115,96 +6108,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
         <v>334</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>337</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>338</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>339</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>340</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>341</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>342</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>345</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>346</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>347</v>
-      </c>
-      <c r="O1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" t="s">
         <v>353</v>
       </c>
-      <c r="F2" t="s">
-        <v>354</v>
-      </c>
       <c r="G2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H2" t="s">
         <v>98</v>
       </c>
       <c r="I2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>356</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>357</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" t="s">
         <v>359</v>
-      </c>
-      <c r="O2" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6235,72 +6228,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
         <v>361</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" t="s">
-        <v>363</v>
-      </c>
       <c r="H1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>347</v>
-      </c>
-      <c r="K1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>365</v>
-      </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" t="s">
         <v>359</v>
-      </c>
-      <c r="K2" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6341,93 +6334,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
         <v>373</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>374</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>375</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>376</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>377</v>
       </c>
-      <c r="H1" t="s">
-        <v>378</v>
-      </c>
       <c r="I1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" t="s">
         <v>395</v>
-      </c>
-      <c r="O1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" t="s">
-        <v>399</v>
-      </c>
       <c r="O2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6468,93 +6461,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
         <v>373</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>374</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>375</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>376</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>377</v>
       </c>
-      <c r="H1" t="s">
-        <v>378</v>
-      </c>
       <c r="I1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" t="s">
         <v>395</v>
-      </c>
-      <c r="O1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
         <v>379</v>
       </c>
-      <c r="D2" t="s">
-        <v>380</v>
-      </c>
       <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
         <v>400</v>
       </c>
-      <c r="F2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2" t="s">
         <v>401</v>
       </c>
-      <c r="I2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" t="s">
         <v>402</v>
       </c>
-      <c r="L2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" t="s">
-        <v>403</v>
-      </c>
       <c r="O2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6644,76 +6637,76 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" t="s">
         <v>404</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>405</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>406</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>407</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>408</v>
       </c>
-      <c r="F1" t="s">
-        <v>409</v>
-      </c>
       <c r="G1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" t="s">
         <v>412</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>413</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>414</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>415</v>
       </c>
-      <c r="K1" t="s">
-        <v>416</v>
-      </c>
       <c r="L1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
         <v>20/07/2025</v>
       </c>
       <c r="C2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" t="s">
         <v>410</v>
       </c>
-      <c r="D2" t="s">
-        <v>411</v>
-      </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>117</v>
       </c>
       <c r="H2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" t="s">
         <v>417</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>418</v>
       </c>
-      <c r="J2" t="s">
-        <v>419</v>
-      </c>
       <c r="K2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6754,63 +6747,63 @@
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
         <v>288</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>289</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>291</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>292</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>293</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>294</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>295</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>296</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>297</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>298</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>299</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
         <v>284</v>
-      </c>
-      <c r="B2" t="s">
-        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -6819,28 +6812,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6881,16 +6874,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6927,66 +6920,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>437</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>438</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>439</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>440</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>441</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>442</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>443</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>444</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>445</v>
-      </c>
-      <c r="N1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>449</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="D2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(G2)</f>
@@ -7000,7 +6993,7 @@
         <v>internal</v>
       </c>
       <c r="I2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J2" t="str">
         <f>LOWER(K2)</f>
@@ -7010,17 +7003,17 @@
         <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M2" t="str">
         <f>LOWER(N2)</f>
         <v>implanted</v>
       </c>
       <c r="N2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -7058,86 +7051,86 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>438</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>439</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>440</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>441</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>442</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>443</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>444</v>
       </c>
-      <c r="N1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O1" t="s">
-        <v>446</v>
-      </c>
       <c r="P1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
         <v>459</v>
       </c>
-      <c r="C2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="E2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(LOWER(H2)," ","")</f>
         <v>firststage</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I2" t="str">
         <f>LOWER(J2)</f>
         <v>external</v>
       </c>
       <c r="J2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(L2)</f>
@@ -7147,7 +7140,7 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N2" t="str">
         <f>LOWER(O2)</f>
@@ -7157,7 +7150,7 @@
         <v>205</v>
       </c>
       <c r="P2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7190,126 +7183,126 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
         <v>467</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>468</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>469</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>474</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>475</v>
-      </c>
-      <c r="J1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
         <v>478</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>479</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>480</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>481</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>482</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>483</v>
-      </c>
-      <c r="G2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" t="s">
         <v>486</v>
-      </c>
-      <c r="B3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" t="s">
-        <v>488</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
         <v>490</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>491</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>492</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>493</v>
-      </c>
-      <c r="E4" t="s">
-        <v>494</v>
-      </c>
-      <c r="K4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" t="s">
         <v>498</v>
       </c>
-      <c r="D5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" t="s">
-        <v>500</v>
-      </c>
       <c r="F5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5" t="s">
         <v>497</v>
-      </c>
-      <c r="G5" t="s">
-        <v>498</v>
-      </c>
-      <c r="H5" t="s">
-        <v>499</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -7318,7 +7311,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7358,43 +7351,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
         <v>467</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>468</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>469</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>474</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>475</v>
       </c>
-      <c r="J1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K1" t="s">
-        <v>477</v>
-      </c>
       <c r="L1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N1" t="s">
         <v>122</v>
@@ -7402,118 +7395,118 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>504</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>505</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>506</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>507</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>508</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="N2" t="s">
         <v>510</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="N2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" t="s">
         <v>516</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>517</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>518</v>
       </c>
-      <c r="E4" t="s">
-        <v>519</v>
-      </c>
-      <c r="K4" t="s">
-        <v>520</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" t="s">
         <v>498</v>
       </c>
-      <c r="C5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" t="s">
-        <v>500</v>
-      </c>
       <c r="E5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" t="s">
         <v>497</v>
       </c>
-      <c r="F5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G5" t="s">
-        <v>499</v>
-      </c>
       <c r="H5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -7522,16 +7515,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7574,160 +7567,160 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
         <v>522</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>523</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>524</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>525</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>526</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>527</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>528</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>529</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>531</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>532</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>534</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>535</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>536</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>537</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>538</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>539</v>
-      </c>
-      <c r="T1" t="s">
-        <v>540</v>
-      </c>
-      <c r="U1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
         <v>542</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>543</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>544</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>545</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>546</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>547</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>548</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>549</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>550</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>551</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>552</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>553</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>554</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>555</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>556</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>557</v>
       </c>
-      <c r="R2" t="s">
-        <v>558</v>
-      </c>
-      <c r="S2" t="s">
-        <v>559</v>
-      </c>
       <c r="U2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" t="s">
         <v>560</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" t="s">
         <v>561</v>
       </c>
-      <c r="C3" t="s">
+      <c r="T3" t="s">
         <v>562</v>
       </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>563</v>
-      </c>
-      <c r="T3" t="s">
-        <v>564</v>
-      </c>
-      <c r="U3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="O4" t="s">
+        <v>565</v>
+      </c>
+      <c r="T4" t="s">
         <v>566</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>567</v>
-      </c>
-      <c r="T4" t="s">
-        <v>568</v>
-      </c>
-      <c r="U4" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7773,70 +7766,70 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
         <v>522</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>523</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>524</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>525</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>526</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>527</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>528</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>529</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>531</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>532</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>534</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>535</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>536</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>537</v>
       </c>
-      <c r="R1" t="s">
-        <v>538</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>539</v>
-      </c>
-      <c r="T1" t="s">
-        <v>541</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
       </c>
       <c r="V1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -7844,93 +7837,93 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G2" t="s">
         <v>542</v>
       </c>
-      <c r="B2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K2" t="s">
+        <v>573</v>
+      </c>
+      <c r="L2" t="s">
         <v>548</v>
       </c>
-      <c r="D2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N2" t="s">
         <v>574</v>
       </c>
-      <c r="I2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J2" t="s">
-        <v>554</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>575</v>
       </c>
-      <c r="L2" t="s">
-        <v>550</v>
-      </c>
-      <c r="M2" t="s">
-        <v>551</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>576</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>577</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>578</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>540</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="X2" t="s">
         <v>580</v>
-      </c>
-      <c r="T2" t="s">
-        <v>542</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="X2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7941,45 +7934,45 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="T3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="X3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="O4" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="T4" t="s">
+        <v>567</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="O4" t="s">
-        <v>590</v>
-      </c>
-      <c r="T4" t="s">
-        <v>569</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="X4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8021,108 +8014,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
         <v>592</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>593</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>594</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>595</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>596</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>597</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>598</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>599</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>600</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>601</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>602</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>603</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>604</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>605</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>606</v>
-      </c>
-      <c r="P1" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" t="s">
         <v>613</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>614</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>615</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>616</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>617</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>618</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>619</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>620</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>621</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>622</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="P2" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -8178,121 +8171,121 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" t="s">
         <v>592</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>593</v>
       </c>
-      <c r="C1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>594</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" t="s">
         <v>595</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>596</v>
       </c>
-      <c r="G1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>597</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>598</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>599</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>600</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>601</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>602</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>603</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>604</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>605</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>606</v>
-      </c>
-      <c r="R1" t="s">
-        <v>607</v>
-      </c>
-      <c r="S1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D2" t="str">
         <f>LOWER(C2)</f>
         <v>withdrawn</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H2" t="s">
         <v>612</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J2" t="s">
         <v>614</v>
       </c>
-      <c r="I2" t="s">
-        <v>615</v>
-      </c>
-      <c r="J2" t="s">
-        <v>616</v>
-      </c>
       <c r="K2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L2" t="s">
+        <v>628</v>
+      </c>
+      <c r="M2" t="s">
         <v>629</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>630</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>631</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>632</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>633</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>634</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="10" t="s">
         <v>635</v>
-      </c>
-      <c r="R2" t="s">
-        <v>636</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -8357,7 +8350,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8427,7 +8420,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>

--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D0A0E-DB82-4124-AB50-CC805973ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB9AA1-5936-4B20-853D-C70AB2B7086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" firstSheet="64" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -2058,9 +2058,6 @@
     <t>Bone Pain</t>
   </si>
   <si>
-    <t>Wednesday Tester (Next Of Kin)</t>
-  </si>
-  <si>
     <t>01/07/2025</t>
   </si>
   <si>
@@ -2074,6 +2071,9 @@
   </si>
   <si>
     <t>releaseA</t>
+  </si>
+  <si>
+    <t>manoj gaikwad (Next Of Kin)</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4FC9F-2982-4FD6-8BD6-4330FF8DA2DE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2591,7 +2591,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>426</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>301</v>
@@ -4091,7 +4091,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4217,7 +4217,7 @@
         <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -7988,7 +7988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60C30C-7F9A-433E-9C84-B91C8DACEF30}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B2" t="s">
         <v>608</v>
@@ -8350,7 +8350,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8420,7 +8420,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>

--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB9AA1-5936-4B20-853D-C70AB2B7086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72909A-D848-400D-B320-4C0BA4569A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="20265" windowHeight="9270" firstSheet="64" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -689,9 +689,6 @@
     <t>Allergies</t>
   </si>
   <si>
-    <t>Sneezing</t>
-  </si>
-  <si>
     <t>alrg_end_date</t>
   </si>
   <si>
@@ -2074,6 +2071,9 @@
   </si>
   <si>
     <t>manoj gaikwad (Next Of Kin)</t>
+  </si>
+  <si>
+    <t>Rash</t>
   </si>
 </sst>
 </file>
@@ -2474,26 +2474,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
         <v>639</v>
-      </c>
-      <c r="B2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" t="s">
         <v>639</v>
-      </c>
-      <c r="B4" t="s">
-        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -2562,7 +2562,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -2591,7 +2591,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -2760,10 +2760,10 @@
         <v>136</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>150</v>
@@ -2960,7 +2960,7 @@
         <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>158</v>
@@ -2986,22 +2986,22 @@
         <v>159</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M2" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3307,22 +3307,22 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>654</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3442,7 +3442,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3505,7 +3505,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3571,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C664057-036F-45F9-BB17-F131467544E4}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,10 +3608,10 @@
         <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,19 +3626,19 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>20/07/2025</v>
+        <v>26/07/2025</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>655</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3652,7 +3652,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,10 +3687,10 @@
         <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,19 +3705,19 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>20/07/2025</v>
+        <v>26/07/2025</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>655</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3799,22 +3799,22 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" t="s">
-        <v>209</v>
       </c>
       <c r="I1" t="s">
         <v>94</v>
@@ -3823,60 +3823,60 @@
         <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
         <v>203</v>
       </c>
-      <c r="M1" t="s">
-        <v>204</v>
-      </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3912,19 +3912,19 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
         <v>208</v>
-      </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s">
-        <v>209</v>
       </c>
       <c r="H1" t="s">
         <v>94</v>
@@ -3933,52 +3933,52 @@
         <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
         <v>203</v>
-      </c>
-      <c r="L1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45858</v>
+        <v>45864</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4056,54 +4056,54 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" t="s">
         <v>227</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>228</v>
-      </c>
-      <c r="M1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
         <v>231</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>232</v>
-      </c>
-      <c r="F2" t="s">
-        <v>233</v>
       </c>
       <c r="G2">
         <v>57749615244</v>
@@ -4112,19 +4112,19 @@
         <v>82</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" t="s">
         <v>234</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>235</v>
-      </c>
-      <c r="M2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4182,7 +4182,7 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
@@ -4191,66 +4191,66 @@
         <v>128</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" t="s">
         <v>227</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>228</v>
-      </c>
-      <c r="M1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2">
         <v>57749615244</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" t="s">
         <v>234</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>235</v>
-      </c>
-      <c r="M2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4327,57 +4327,57 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
         <v>245</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" t="s">
         <v>247</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>158</v>
@@ -4425,57 +4425,57 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>163</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4553,7 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
@@ -4564,19 +4564,19 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
         <v>258</v>
-      </c>
-      <c r="E2" t="s">
-        <v>259</v>
       </c>
       <c r="F2">
         <v>5774961523</v>
@@ -4611,7 +4611,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4619,16 +4619,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4695,7 +4695,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4703,16 +4703,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>262</v>
-      </c>
-      <c r="D2" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4744,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4820,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -4907,21 +4907,21 @@
         <v>180</v>
       </c>
       <c r="AG1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -4939,10 +4939,10 @@
         <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="L2" t="s">
         <v>176</v>
@@ -5002,7 +5002,7 @@
         <v>181</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -5076,7 +5076,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5084,16 +5084,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5125,7 +5125,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5133,16 +5133,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5178,13 +5178,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5215,7 +5215,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5223,16 +5223,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5263,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5271,16 +5271,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5357,69 +5357,69 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
         <v>287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>294</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>295</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>296</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>297</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>298</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5428,28 +5428,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5486,81 +5486,81 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
         <v>287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>294</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>295</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>296</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>297</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" t="s">
-        <v>299</v>
-      </c>
       <c r="R1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S1" t="s">
         <v>312</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>313</v>
       </c>
-      <c r="T1" t="s">
-        <v>314</v>
-      </c>
       <c r="U1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" t="s">
         <v>309</v>
-      </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5569,40 +5569,40 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5635,13 +5635,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>324</v>
-      </c>
-      <c r="F2" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5713,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="str">
         <f>AddMedication!B2</f>
@@ -5785,7 +5785,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -5869,13 +5869,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5883,22 +5883,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
         <v>320</v>
-      </c>
-      <c r="B2" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5968,21 +5968,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>330</v>
-      </c>
-      <c r="D2" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6018,21 +6018,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>330</v>
-      </c>
-      <c r="D2" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6068,13 +6068,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6108,96 +6108,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>334</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>335</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>339</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>344</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>346</v>
-      </c>
-      <c r="O1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" t="s">
         <v>352</v>
       </c>
-      <c r="F2" t="s">
-        <v>353</v>
-      </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
         <v>98</v>
       </c>
       <c r="I2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" t="s">
         <v>354</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>355</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>356</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" t="s">
         <v>358</v>
-      </c>
-      <c r="O2" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6228,72 +6228,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s">
         <v>360</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
         <v>361</v>
       </c>
-      <c r="C1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" t="s">
-        <v>362</v>
-      </c>
       <c r="H1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
-      </c>
-      <c r="K1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="C2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" t="s">
         <v>358</v>
-      </c>
-      <c r="K2" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6334,93 +6334,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>374</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>375</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>376</v>
       </c>
-      <c r="H1" t="s">
-        <v>377</v>
-      </c>
       <c r="I1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" t="s">
         <v>394</v>
-      </c>
-      <c r="O1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N2" t="s">
         <v>397</v>
       </c>
-      <c r="B2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N2" t="s">
-        <v>398</v>
-      </c>
       <c r="O2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6461,93 +6461,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>374</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>375</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>376</v>
       </c>
-      <c r="H1" t="s">
-        <v>377</v>
-      </c>
       <c r="I1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" t="s">
         <v>394</v>
-      </c>
-      <c r="O1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" t="s">
-        <v>379</v>
-      </c>
       <c r="E2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" t="s">
         <v>399</v>
       </c>
-      <c r="F2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" t="s">
         <v>400</v>
       </c>
-      <c r="I2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N2" t="s">
         <v>401</v>
       </c>
-      <c r="L2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N2" t="s">
-        <v>402</v>
-      </c>
       <c r="O2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="str">
         <f>EditMedication!B2</f>
@@ -6637,76 +6637,76 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
         <v>403</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>404</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>405</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>406</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>407</v>
       </c>
-      <c r="F1" t="s">
-        <v>408</v>
-      </c>
       <c r="G1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" t="s">
         <v>411</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>412</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>413</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>414</v>
       </c>
-      <c r="K1" t="s">
-        <v>415</v>
-      </c>
       <c r="L1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>20/07/2025</v>
+        <v>26/07/2025</v>
       </c>
       <c r="C2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" t="s">
         <v>409</v>
       </c>
-      <c r="D2" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
         <v>117</v>
       </c>
       <c r="H2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" t="s">
         <v>416</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>417</v>
       </c>
-      <c r="J2" t="s">
-        <v>418</v>
-      </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6747,63 +6747,63 @@
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
         <v>287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>294</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>295</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>296</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>297</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>298</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
         <v>283</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -6812,28 +6812,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6874,16 +6874,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6920,80 +6920,80 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
         <v>431</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>432</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>435</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>436</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>437</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>438</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>439</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>440</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>442</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>443</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>444</v>
-      </c>
-      <c r="O1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
         <v>446</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>447</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>448</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(G2)</f>
         <v>primary</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" t="str">
         <f>LOWER(I2)</f>
         <v>internal</v>
       </c>
       <c r="I2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J2" t="str">
         <f>LOWER(K2)</f>
@@ -7003,17 +7003,17 @@
         <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M2" t="str">
         <f>LOWER(N2)</f>
         <v>implanted</v>
       </c>
       <c r="N2" t="s">
+        <v>452</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -7051,86 +7051,86 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
         <v>431</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>432</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L1" t="s">
+        <v>440</v>
+      </c>
+      <c r="M1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P1" t="s">
         <v>455</v>
-      </c>
-      <c r="F1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" t="s">
-        <v>440</v>
-      </c>
-      <c r="L1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N1" t="s">
-        <v>443</v>
-      </c>
-      <c r="O1" t="s">
-        <v>444</v>
-      </c>
-      <c r="P1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" t="s">
         <v>457</v>
       </c>
-      <c r="C2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>458</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(LOWER(H2)," ","")</f>
         <v>firststage</v>
       </c>
       <c r="H2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I2" t="str">
         <f>LOWER(J2)</f>
         <v>external</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(L2)</f>
@@ -7140,17 +7140,17 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N2" t="str">
         <f>LOWER(O2)</f>
         <v>requested</v>
       </c>
       <c r="O2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7183,126 +7183,126 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" t="s">
         <v>465</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>466</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>467</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>468</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>470</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>471</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>472</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>473</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>474</v>
-      </c>
-      <c r="K1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" t="s">
         <v>476</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>477</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>478</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>479</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>480</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>481</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>482</v>
-      </c>
-      <c r="K2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" t="s">
         <v>484</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>485</v>
-      </c>
-      <c r="C3" t="s">
-        <v>486</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
         <v>488</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>489</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>490</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>491</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>492</v>
-      </c>
-      <c r="K4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" t="s">
         <v>494</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
         <v>496</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>497</v>
       </c>
-      <c r="E5" t="s">
-        <v>498</v>
-      </c>
       <c r="F5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" t="s">
         <v>495</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>496</v>
-      </c>
-      <c r="H5" t="s">
-        <v>497</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7351,43 +7351,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" t="s">
         <v>465</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>466</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>467</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>468</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>470</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>471</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>472</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>473</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>474</v>
       </c>
-      <c r="K1" t="s">
-        <v>475</v>
-      </c>
       <c r="L1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M1" t="s">
         <v>500</v>
-      </c>
-      <c r="M1" t="s">
-        <v>501</v>
       </c>
       <c r="N1" t="s">
         <v>122</v>
@@ -7395,118 +7395,118 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" t="s">
         <v>502</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>503</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>504</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>505</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>506</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>507</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" t="s">
         <v>509</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
         <v>511</v>
-      </c>
-      <c r="C3" t="s">
-        <v>512</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N3" t="s">
         <v>509</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
         <v>514</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>515</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>516</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>517</v>
       </c>
-      <c r="K4" t="s">
-        <v>518</v>
-      </c>
       <c r="L4" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N4" t="s">
         <v>509</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" t="s">
         <v>496</v>
       </c>
-      <c r="C5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G5" t="s">
-        <v>497</v>
-      </c>
       <c r="H5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -7515,16 +7515,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N5" t="s">
         <v>509</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N5" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7567,160 +7567,160 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" t="s">
         <v>520</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>521</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>522</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>523</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>524</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>525</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>526</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>527</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>528</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>529</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>530</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>531</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>532</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>533</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>534</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>535</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>536</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>537</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>538</v>
-      </c>
-      <c r="U1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" t="s">
         <v>540</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>541</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>542</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>543</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>544</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>545</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>546</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>547</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>548</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>549</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>550</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>551</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>552</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>553</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>554</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>555</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>556</v>
       </c>
-      <c r="S2" t="s">
-        <v>557</v>
-      </c>
       <c r="U2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" t="s">
         <v>558</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>559</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O3" t="s">
         <v>560</v>
       </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>561</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>562</v>
-      </c>
-      <c r="U3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>563</v>
+      </c>
+      <c r="O4" t="s">
         <v>564</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>565</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>566</v>
-      </c>
-      <c r="U4" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7766,70 +7766,70 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" t="s">
         <v>520</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>521</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>522</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>523</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>524</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>525</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>526</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>527</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>528</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>529</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>530</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>531</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>532</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>533</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>534</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>535</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>536</v>
       </c>
-      <c r="S1" t="s">
-        <v>537</v>
-      </c>
       <c r="T1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
       </c>
       <c r="V1" t="s">
+        <v>567</v>
+      </c>
+      <c r="W1" t="s">
         <v>568</v>
-      </c>
-      <c r="W1" t="s">
-        <v>569</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -7837,93 +7837,93 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" t="s">
         <v>540</v>
       </c>
-      <c r="B2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H2" t="s">
         <v>571</v>
       </c>
-      <c r="F2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" t="s">
         <v>572</v>
       </c>
-      <c r="I2" t="s">
-        <v>551</v>
-      </c>
-      <c r="J2" t="s">
-        <v>552</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>547</v>
+      </c>
+      <c r="M2" t="s">
+        <v>548</v>
+      </c>
+      <c r="N2" t="s">
         <v>573</v>
       </c>
-      <c r="L2" t="s">
-        <v>548</v>
-      </c>
-      <c r="M2" t="s">
-        <v>549</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>574</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>575</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>576</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>577</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>539</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="T2" t="s">
-        <v>540</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="X2" t="s">
         <v>579</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="X2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7934,45 +7934,45 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="V3" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="X3" t="s">
         <v>579</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="X3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="O4" t="s">
         <v>587</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
+        <v>566</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="T4" t="s">
-        <v>567</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>589</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60C30C-7F9A-433E-9C84-B91C8DACEF30}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8014,108 +8014,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
         <v>590</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>591</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>592</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>593</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>594</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>595</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>596</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>597</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>598</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>599</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>600</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>601</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>602</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>603</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>604</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>605</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="s">
         <v>608</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" t="s">
         <v>611</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>612</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>613</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>614</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>615</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>616</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>617</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>618</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>619</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>620</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>621</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -8171,121 +8171,121 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
         <v>590</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" t="s">
         <v>591</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>594</v>
       </c>
-      <c r="G1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>595</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>596</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>597</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>598</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>599</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>600</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>601</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>602</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>603</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>604</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>605</v>
-      </c>
-      <c r="S1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" t="s">
         <v>607</v>
       </c>
-      <c r="B2" t="s">
-        <v>608</v>
-      </c>
       <c r="C2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D2" t="str">
         <f>LOWER(C2)</f>
         <v>withdrawn</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I2" t="s">
         <v>612</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>613</v>
       </c>
-      <c r="J2" t="s">
-        <v>614</v>
-      </c>
       <c r="K2" t="s">
+        <v>626</v>
+      </c>
+      <c r="L2" t="s">
         <v>627</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>628</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>629</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>630</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>631</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>632</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>633</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="10" t="s">
         <v>634</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8417,10 +8417,10 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -8441,26 +8441,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8715,26 +8695,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8751,4 +8732,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72909A-D848-400D-B320-4C0BA4569A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F38F6-12BC-496A-A01E-F393E66C50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="54" activeTab="59" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="659">
   <si>
     <t>username</t>
   </si>
@@ -1064,9 +1064,6 @@
     <t>cond_notes</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Erythematous condition</t>
   </si>
   <si>
@@ -1368,9 +1365,6 @@
   </si>
   <si>
     <t>For_User</t>
-  </si>
-  <si>
-    <t>Manoj Vyavahare, Consultant</t>
   </si>
   <si>
     <t>Added notes</t>
@@ -2074,6 +2068,21 @@
   </si>
   <si>
     <t>Rash</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Asthmatic bronchitis</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>Manoj Release, Doctor</t>
   </si>
 </sst>
 </file>
@@ -2474,26 +2483,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2600,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -2986,16 +2995,16 @@
         <v>159</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M2" t="s">
         <v>188</v>
@@ -3307,13 +3316,13 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>300</v>
@@ -3322,7 +3331,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3442,7 +3451,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3505,7 +3514,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3556,7 +3565,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3571,15 +3580,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C664057-036F-45F9-BB17-F131467544E4}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3626,13 +3635,13 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>26/07/2025</v>
+        <v>03/08/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>279</v>
@@ -3705,13 +3714,13 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>26/07/2025</v>
+        <v>03/08/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>280</v>
@@ -3840,13 +3849,13 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>103</v>
@@ -3947,11 +3956,11 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45864</v>
+        <v>45872</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -4017,7 +4026,7 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4091,7 +4100,7 @@
         <v>229</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4217,7 +4226,7 @@
         <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4282,7 +4291,7 @@
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4356,7 +4365,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4454,7 +4463,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4513,7 +4522,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
         <v>254</v>
@@ -4820,7 +4829,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -4915,13 +4924,13 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -4939,10 +4948,10 @@
         <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L2" t="s">
         <v>176</v>
@@ -5087,7 +5096,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>268</v>
@@ -5136,7 +5145,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>271</v>
@@ -5181,7 +5190,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s">
         <v>272</v>
@@ -5226,7 +5235,7 @@
         <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>277</v>
@@ -5274,7 +5283,7 @@
         <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>276</v>
@@ -5319,7 +5328,7 @@
         <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
         <v>278</v>
@@ -5407,7 +5416,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>204</v>
@@ -5548,7 +5557,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>308</v>
@@ -5612,10 +5621,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1194F774-EACE-44AC-9C8A-A1CC70FE36E1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,22 +5658,27 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5727,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5785,7 +5799,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -5849,7 +5863,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5883,22 +5897,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5908,10 +5922,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0A6C0-CF2F-48B8-BAC5-F3E5690001A5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,20 +5934,26 @@
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5968,21 +5988,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>329</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6018,21 +6038,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>329</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6068,13 +6088,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6108,96 +6128,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
         <v>332</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>333</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>338</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>339</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>345</v>
-      </c>
-      <c r="O1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" t="s">
         <v>351</v>
       </c>
-      <c r="F2" t="s">
-        <v>352</v>
-      </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>98</v>
       </c>
       <c r="I2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" t="s">
         <v>353</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>354</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>355</v>
-      </c>
-      <c r="L2" t="s">
-        <v>356</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>316</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O2" t="s">
         <v>357</v>
-      </c>
-      <c r="O2" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6228,72 +6248,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
         <v>359</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" t="s">
         <v>360</v>
-      </c>
-      <c r="C1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" t="s">
-        <v>361</v>
       </c>
       <c r="H1" t="s">
         <v>298</v>
       </c>
       <c r="I1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" t="s">
         <v>344</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
-      </c>
-      <c r="K1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>316</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K2" t="s">
         <v>357</v>
-      </c>
-      <c r="K2" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6334,93 +6354,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
         <v>371</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>372</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>373</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>374</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>375</v>
       </c>
-      <c r="H1" t="s">
-        <v>376</v>
-      </c>
       <c r="I1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" t="s">
         <v>393</v>
-      </c>
-      <c r="O1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N2" t="s">
         <v>396</v>
       </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M2" t="s">
-        <v>392</v>
-      </c>
-      <c r="N2" t="s">
-        <v>397</v>
-      </c>
       <c r="O2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -6461,93 +6481,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
         <v>371</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>372</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>373</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>374</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>375</v>
       </c>
-      <c r="H1" t="s">
-        <v>376</v>
-      </c>
       <c r="I1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" t="s">
         <v>393</v>
-      </c>
-      <c r="O1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" t="s">
         <v>377</v>
       </c>
-      <c r="D2" t="s">
-        <v>378</v>
-      </c>
       <c r="E2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" t="s">
         <v>398</v>
       </c>
-      <c r="F2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" t="s">
         <v>399</v>
       </c>
-      <c r="I2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N2" t="s">
         <v>400</v>
       </c>
-      <c r="L2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M2" t="s">
-        <v>392</v>
-      </c>
-      <c r="N2" t="s">
-        <v>401</v>
-      </c>
       <c r="O2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -6616,8 +6636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292FBDAE-D596-4C82-A946-FDA545BEF94C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6637,55 +6657,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
         <v>402</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>404</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>405</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>406</v>
       </c>
-      <c r="F1" t="s">
-        <v>407</v>
-      </c>
       <c r="G1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" t="s">
         <v>410</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>411</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>412</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>413</v>
       </c>
-      <c r="K1" t="s">
-        <v>414</v>
-      </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>26/07/2025</v>
+        <v>03/08/2025</v>
       </c>
       <c r="C2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" t="s">
         <v>408</v>
-      </c>
-      <c r="D2" t="s">
-        <v>409</v>
       </c>
       <c r="E2" t="s">
         <v>302</v>
@@ -6694,19 +6714,19 @@
         <v>117</v>
       </c>
       <c r="H2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" t="s">
         <v>415</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>416</v>
       </c>
-      <c r="J2" t="s">
-        <v>417</v>
-      </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L2" t="s">
-        <v>421</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -6874,16 +6894,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6916,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,66 +6940,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>434</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>435</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>436</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>437</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>438</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>439</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>440</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>441</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>442</v>
-      </c>
-      <c r="N1" t="s">
-        <v>443</v>
-      </c>
-      <c r="O1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
         <v>445</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="D2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(G2)</f>
@@ -6993,7 +7013,7 @@
         <v>internal</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J2" t="str">
         <f>LOWER(K2)</f>
@@ -7003,17 +7023,17 @@
         <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M2" t="str">
         <f>LOWER(N2)</f>
         <v>implanted</v>
       </c>
       <c r="N2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -7051,86 +7071,86 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>434</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>435</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>436</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>437</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>438</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>439</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>440</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>441</v>
       </c>
-      <c r="N1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O1" t="s">
-        <v>443</v>
-      </c>
       <c r="P1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
         <v>445</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
         <v>456</v>
       </c>
-      <c r="C2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="E2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(LOWER(H2)," ","")</f>
         <v>firststage</v>
       </c>
       <c r="H2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I2" t="str">
         <f>LOWER(J2)</f>
         <v>external</v>
       </c>
       <c r="J2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(L2)</f>
@@ -7140,7 +7160,7 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N2" t="str">
         <f>LOWER(O2)</f>
@@ -7150,7 +7170,7 @@
         <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7183,126 +7203,126 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
         <v>464</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>469</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>470</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>471</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>472</v>
-      </c>
-      <c r="J1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
         <v>475</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>476</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>478</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>479</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>480</v>
-      </c>
-      <c r="G2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" t="s">
         <v>483</v>
-      </c>
-      <c r="B3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C3" t="s">
-        <v>485</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" t="s">
         <v>487</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>488</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>489</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>490</v>
-      </c>
-      <c r="E4" t="s">
-        <v>491</v>
-      </c>
-      <c r="K4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" t="s">
         <v>495</v>
       </c>
-      <c r="D5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E5" t="s">
-        <v>497</v>
-      </c>
       <c r="F5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" t="s">
         <v>494</v>
-      </c>
-      <c r="G5" t="s">
-        <v>495</v>
-      </c>
-      <c r="H5" t="s">
-        <v>496</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -7311,7 +7331,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7351,43 +7371,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
         <v>464</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>469</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>470</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>471</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>472</v>
       </c>
-      <c r="J1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K1" t="s">
-        <v>474</v>
-      </c>
       <c r="L1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N1" t="s">
         <v>122</v>
@@ -7395,118 +7415,118 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
         <v>501</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>502</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>503</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>504</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>505</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" t="s">
         <v>507</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="N2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" t="s">
         <v>513</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>514</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>515</v>
       </c>
-      <c r="E4" t="s">
-        <v>516</v>
-      </c>
-      <c r="K4" t="s">
-        <v>517</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" t="s">
         <v>495</v>
       </c>
-      <c r="C5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" t="s">
-        <v>497</v>
-      </c>
       <c r="E5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G5" t="s">
         <v>494</v>
       </c>
-      <c r="F5" t="s">
-        <v>495</v>
-      </c>
-      <c r="G5" t="s">
-        <v>496</v>
-      </c>
       <c r="H5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -7515,16 +7535,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7567,160 +7587,160 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" t="s">
         <v>519</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>520</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>521</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>522</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>523</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>524</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>525</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>526</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>527</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>528</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>529</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>530</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>531</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>532</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>533</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>534</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>535</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>536</v>
-      </c>
-      <c r="T1" t="s">
-        <v>537</v>
-      </c>
-      <c r="U1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
         <v>539</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>540</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>541</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>542</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>543</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>544</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>545</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>546</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>547</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>548</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>549</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>550</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>551</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>552</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>553</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>554</v>
       </c>
-      <c r="R2" t="s">
-        <v>555</v>
-      </c>
-      <c r="S2" t="s">
-        <v>556</v>
-      </c>
       <c r="U2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="s">
         <v>557</v>
-      </c>
-      <c r="B3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" t="s">
-        <v>559</v>
       </c>
       <c r="D3" t="s">
         <v>314</v>
       </c>
       <c r="O3" t="s">
+        <v>558</v>
+      </c>
+      <c r="T3" t="s">
+        <v>559</v>
+      </c>
+      <c r="U3" t="s">
         <v>560</v>
-      </c>
-      <c r="T3" t="s">
-        <v>561</v>
-      </c>
-      <c r="U3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>561</v>
+      </c>
+      <c r="O4" t="s">
+        <v>562</v>
+      </c>
+      <c r="T4" t="s">
         <v>563</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>564</v>
-      </c>
-      <c r="T4" t="s">
-        <v>565</v>
-      </c>
-      <c r="U4" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7766,70 +7786,70 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" t="s">
         <v>519</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>520</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>521</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>522</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>523</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>524</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>525</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>526</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>527</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>528</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>529</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>530</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>531</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>532</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>533</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>534</v>
       </c>
-      <c r="R1" t="s">
-        <v>535</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>536</v>
-      </c>
-      <c r="T1" t="s">
-        <v>538</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
       </c>
       <c r="V1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="W1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -7837,93 +7857,93 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" t="s">
         <v>539</v>
       </c>
-      <c r="B2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K2" t="s">
+        <v>570</v>
+      </c>
+      <c r="L2" t="s">
         <v>545</v>
       </c>
-      <c r="D2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N2" t="s">
         <v>571</v>
       </c>
-      <c r="I2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" t="s">
-        <v>551</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>572</v>
       </c>
-      <c r="L2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M2" t="s">
-        <v>548</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>573</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>574</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>575</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="X2" t="s">
         <v>577</v>
-      </c>
-      <c r="T2" t="s">
-        <v>539</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="X2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7934,45 +7954,45 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="T3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="X3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="O4" t="s">
         <v>585</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="T4" t="s">
+        <v>564</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="O4" t="s">
-        <v>587</v>
-      </c>
-      <c r="T4" t="s">
-        <v>566</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>588</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8014,108 +8034,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" t="s">
         <v>589</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>590</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>591</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>592</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>593</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>594</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>595</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>596</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>597</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>598</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>599</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>600</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>601</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>602</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>603</v>
-      </c>
-      <c r="P1" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" t="s">
         <v>609</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" t="s">
         <v>610</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>611</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>612</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>613</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>614</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>615</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>616</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>617</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>618</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>619</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="P2" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -8171,121 +8191,121 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" t="s">
         <v>589</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>590</v>
       </c>
-      <c r="C1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>591</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1" t="s">
         <v>592</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>593</v>
       </c>
-      <c r="G1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>594</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>595</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>596</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>597</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>598</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>599</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>600</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>601</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>602</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>603</v>
-      </c>
-      <c r="R1" t="s">
-        <v>604</v>
-      </c>
-      <c r="S1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D2" t="str">
         <f>LOWER(C2)</f>
         <v>withdrawn</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" t="s">
         <v>609</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J2" t="s">
         <v>611</v>
       </c>
-      <c r="I2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J2" t="s">
-        <v>613</v>
-      </c>
       <c r="K2" t="s">
+        <v>624</v>
+      </c>
+      <c r="L2" t="s">
+        <v>625</v>
+      </c>
+      <c r="M2" t="s">
         <v>626</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>627</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>628</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>629</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>630</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>631</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="R2" t="s">
-        <v>633</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -8350,7 +8370,7 @@
         <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8420,7 +8440,7 @@
         <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -8441,6 +8461,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8695,27 +8735,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8732,23 +8771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F38F6-12BC-496A-A01E-F393E66C50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CFB1F-A3B0-4C62-9B53-C1DACE9E94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="54" activeTab="59" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -83,6 +83,7 @@
     <sheet name="EditTool" sheetId="69" r:id="rId68"/>
     <sheet name="AddPatientConsent" sheetId="70" r:id="rId69"/>
     <sheet name="EditPatientConsent" sheetId="71" r:id="rId70"/>
+    <sheet name="PhysicalSign" sheetId="72" r:id="rId71"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="690">
   <si>
     <t>username</t>
   </si>
@@ -2083,6 +2084,99 @@
   </si>
   <si>
     <t>Manoj Release, Doctor</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Blood Pressure (35)</t>
+  </si>
+  <si>
+    <t>Blood Pressure Diastolic (mmHg)</t>
+  </si>
+  <si>
+    <t>Blood Pressure Diastolic (mmHg) (12)</t>
+  </si>
+  <si>
+    <t>Blood Pressure Systolic (mmHg)</t>
+  </si>
+  <si>
+    <t>Blood Pressure Systolic (mmHg) (mmHg )</t>
+  </si>
+  <si>
+    <t>BMI (body mass index) centile</t>
+  </si>
+  <si>
+    <t>Capillary refill time (seconds)</t>
+  </si>
+  <si>
+    <t>Foetal heart rate</t>
+  </si>
+  <si>
+    <t>Fundal height of uterus</t>
+  </si>
+  <si>
+    <t>Halo sign</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Height (cm) (cm)</t>
+  </si>
+  <si>
+    <t>Height and weight</t>
+  </si>
+  <si>
+    <t>News Score (No unit)</t>
+  </si>
+  <si>
+    <t>O2 (L/Min)</t>
+  </si>
+  <si>
+    <t>Oxygen (12)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation Scale 1 (%)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation Scale 2 (%)</t>
+  </si>
+  <si>
+    <t>PEWS score</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Pulse (Beats per minute)</t>
+  </si>
+  <si>
+    <t>Pulse-resting-rate(bpm)</t>
+  </si>
+  <si>
+    <t>Respiratory Rate (Breaths per minute)</t>
+  </si>
+  <si>
+    <t>Respiratory Rate</t>
+  </si>
+  <si>
+    <t>Serum neutralization test</t>
+  </si>
+  <si>
+    <t>SPO2</t>
+  </si>
+  <si>
+    <t>Structure of epiphyseal plate</t>
+  </si>
+  <si>
+    <t>Temperature (degree C)</t>
+  </si>
+  <si>
+    <t>Weight (kg) (kg)</t>
   </si>
 </sst>
 </file>
@@ -3635,7 +3729,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>03/08/2025</v>
+        <v>24/08/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3714,7 +3808,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>03/08/2025</v>
+        <v>24/08/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -3781,7 +3875,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,7 +4054,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45872</v>
+        <v>45893</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5206,7 +5300,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,8 +6730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292FBDAE-D596-4C82-A946-FDA545BEF94C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,7 +6793,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>03/08/2025</v>
+        <v>24/08/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -8313,6 +8407,265 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>677</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>678</v>
+      </c>
+      <c r="B19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>679</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>680</v>
+      </c>
+      <c r="B21">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>683</v>
+      </c>
+      <c r="B24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>684</v>
+      </c>
+      <c r="B25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>685</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>686</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>687</v>
+      </c>
+      <c r="B28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>689</v>
+      </c>
+      <c r="B30">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC7FC3-A185-46F7-A2D4-55C9E247ADD9}">
   <dimension ref="A1:I2"/>
@@ -8461,17 +8814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8480,7 +8822,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8735,18 +9077,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8754,7 +9096,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8771,4 +9113,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CFB1F-A3B0-4C62-9B53-C1DACE9E94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F528392F-88CA-4773-B6AC-47BFD4CD3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>24/08/2025</v>
+        <v>07/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>24/08/2025</v>
+        <v>07/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -3874,7 +3874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC72BC-1449-4578-8E57-945920649F3D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45907</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>24/08/2025</v>
+        <v>07/09/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -8411,7 +8411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
@@ -8814,15 +8814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -9077,7 +9068,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -9088,15 +9079,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9115,7 +9107,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9124,4 +9116,12 @@
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F528392F-88CA-4773-B6AC-47BFD4CD3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFBD600-5D5C-42DC-99D6-746C538BCE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="694">
   <si>
     <t>username</t>
   </si>
@@ -2092,9 +2092,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Blood Pressure (35)</t>
-  </si>
-  <si>
     <t>Blood Pressure Diastolic (mmHg)</t>
   </si>
   <si>
@@ -2177,6 +2174,21 @@
   </si>
   <si>
     <t>Weight (kg) (kg)</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Respiratory Rate (Breaths per Minute) (bpm)</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,6 +2225,12 @@
       <color rgb="FFAF00DB"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C0B0B"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2242,7 +2260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2274,6 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3729,7 +3748,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/09/2025</v>
+        <v>14/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3808,7 +3827,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/09/2025</v>
+        <v>14/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -3874,7 +3893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC72BC-1449-4578-8E57-945920649F3D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4054,7 +4073,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45907</v>
+        <v>45914</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -6793,7 +6812,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/09/2025</v>
+        <v>14/09/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -8411,8 +8430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,56 +8449,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
+      <c r="A2" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
+        <v>661</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
+        <v>662</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B5">
-        <v>125</v>
+        <v>663</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>665</v>
-      </c>
-      <c r="B6">
-        <v>99</v>
+        <v>664</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>666</v>
-      </c>
-      <c r="B7">
-        <v>99</v>
+        <v>665</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -8487,7 +8506,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -8495,7 +8514,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B10">
         <v>68</v>
@@ -8503,7 +8522,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B11">
         <v>52</v>
@@ -8511,7 +8530,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B12">
         <v>162</v>
@@ -8519,7 +8538,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B13">
         <v>168</v>
@@ -8527,7 +8546,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B14">
         <v>61</v>
@@ -8535,7 +8554,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -8543,7 +8562,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -8551,7 +8570,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B17">
         <v>102</v>
@@ -8559,7 +8578,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B18">
         <v>98</v>
@@ -8567,7 +8586,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B19">
         <v>99</v>
@@ -8575,7 +8594,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B20">
         <v>55</v>
@@ -8583,7 +8602,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B21">
         <v>69</v>
@@ -8591,7 +8610,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B22">
         <v>298</v>
@@ -8599,7 +8618,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B23">
         <v>78</v>
@@ -8607,7 +8626,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B24">
         <v>48</v>
@@ -8615,7 +8634,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B25">
         <v>298</v>
@@ -8623,7 +8642,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -8631,7 +8650,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B27">
         <v>65</v>
@@ -8639,7 +8658,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B28">
         <v>89</v>
@@ -8647,7 +8666,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B29">
         <v>36</v>
@@ -8655,7 +8674,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B30">
         <v>58</v>
@@ -8663,6 +8682,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8814,6 +8834,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -9068,27 +9108,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9105,23 +9144,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFBD600-5D5C-42DC-99D6-746C538BCE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2677B0-BE6D-4162-A0E2-D74E0ED418DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="690">
   <si>
     <t>username</t>
   </si>
@@ -2092,103 +2092,91 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Blood Pressure Diastolic (mmHg)</t>
-  </si>
-  <si>
-    <t>Blood Pressure Diastolic (mmHg) (12)</t>
-  </si>
-  <si>
-    <t>Blood Pressure Systolic (mmHg)</t>
-  </si>
-  <si>
-    <t>Blood Pressure Systolic (mmHg) (mmHg )</t>
-  </si>
-  <si>
-    <t>BMI (body mass index) centile</t>
-  </si>
-  <si>
-    <t>Capillary refill time (seconds)</t>
-  </si>
-  <si>
-    <t>Foetal heart rate</t>
-  </si>
-  <si>
-    <t>Fundal height of uterus</t>
-  </si>
-  <si>
-    <t>Halo sign</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Height (cm) (cm)</t>
-  </si>
-  <si>
-    <t>Height and weight</t>
-  </si>
-  <si>
-    <t>News Score (No unit)</t>
-  </si>
-  <si>
     <t>O2 (L/Min)</t>
   </si>
   <si>
-    <t>Oxygen (12)</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation Scale 1 (%)</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation Scale 2 (%)</t>
-  </si>
-  <si>
     <t>PEWS score</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
     <t>Pulse (Beats per minute)</t>
   </si>
   <si>
     <t>Pulse-resting-rate(bpm)</t>
   </si>
   <si>
-    <t>Respiratory Rate (Breaths per minute)</t>
-  </si>
-  <si>
-    <t>Respiratory Rate</t>
-  </si>
-  <si>
-    <t>Serum neutralization test</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>Structure of epiphyseal plate</t>
-  </si>
-  <si>
-    <t>Temperature (degree C)</t>
-  </si>
-  <si>
-    <t>Weight (kg) (kg)</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>Respiratory Rate (Breaths per Minute) (bpm)</t>
+  </si>
+  <si>
+    <t>Blood pressure</t>
+  </si>
+  <si>
+    <t>Blood Pressure - BP (mmHg)</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Height(cm) (cm)</t>
+  </si>
+  <si>
+    <t>O/E - respiratory rate (bpm)</t>
+  </si>
+  <si>
+    <t>Pain Level</t>
+  </si>
+  <si>
+    <t>Rnagetext</t>
+  </si>
+  <si>
+    <t>Test Weight</t>
+  </si>
+  <si>
+    <t>Vital</t>
+  </si>
+  <si>
+    <t>weighting</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
 </sst>
 </file>
@@ -8428,10 +8416,10 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8450,234 +8438,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>667</v>
-      </c>
-      <c r="B9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B10">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B12">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>671</v>
-      </c>
-      <c r="B13">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>672</v>
-      </c>
-      <c r="B14">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>673</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>674</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>675</v>
-      </c>
-      <c r="B17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>676</v>
-      </c>
-      <c r="B18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>677</v>
-      </c>
-      <c r="B19">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>678</v>
-      </c>
-      <c r="B20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>679</v>
-      </c>
-      <c r="B21">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>680</v>
-      </c>
-      <c r="B22">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>681</v>
-      </c>
-      <c r="B23">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>682</v>
-      </c>
-      <c r="B24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>683</v>
-      </c>
-      <c r="B25">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>684</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>685</v>
-      </c>
-      <c r="B27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>686</v>
-      </c>
-      <c r="B28">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>687</v>
-      </c>
-      <c r="B29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>688</v>
-      </c>
-      <c r="B30">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8691,7 +8567,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8834,17 +8710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8853,7 +8718,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -9108,18 +8973,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9127,7 +8992,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9144,4 +9009,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2677B0-BE6D-4162-A0E2-D74E0ED418DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5699813-430C-47A5-AA96-21861255CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="48" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -2038,9 +2038,6 @@
     <t>Paracetamol 125mg suppositories</t>
   </si>
   <si>
-    <t>RFT</t>
-  </si>
-  <si>
     <t>Low risk</t>
   </si>
   <si>
@@ -2177,6 +2174,9 @@
   </si>
   <si>
     <t>72</t>
+  </si>
+  <si>
+    <t>RFT(Renal Function Tests)</t>
   </si>
 </sst>
 </file>
@@ -2701,7 +2701,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>423</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>300</v>
@@ -3432,7 +3432,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3736,13 +3736,13 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>14/09/2025</v>
+        <v>21/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>279</v>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>14/09/2025</v>
+        <v>21/09/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>280</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45914</v>
+        <v>45921</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -4201,7 +4201,7 @@
         <v>229</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4327,7 +4327,7 @@
         <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4466,7 +4466,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4564,7 +4564,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B2" t="s">
         <v>254</v>
@@ -5197,7 +5197,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>268</v>
@@ -5246,7 +5246,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>271</v>
@@ -5291,7 +5291,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
         <v>272</v>
@@ -5445,7 +5445,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,7 +5517,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>204</v>
@@ -5571,8 +5571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C5A93-3712-47E8-A929-16017ECD465E}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,7 +5658,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>308</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" t="s">
         <v>654</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>322</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" t="s">
         <v>654</v>
-      </c>
-      <c r="B2" t="s">
-        <v>655</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>320</v>
@@ -6048,10 +6048,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" t="s">
         <v>654</v>
-      </c>
-      <c r="B2" t="s">
-        <v>655</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>14/09/2025</v>
+        <v>21/09/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -6827,7 +6827,7 @@
         <v>418</v>
       </c>
       <c r="L2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s">
         <v>605</v>
@@ -8418,7 +8418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8430,111 +8430,111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" t="s">
         <v>659</v>
-      </c>
-      <c r="B1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>314</v>
@@ -8542,18 +8542,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +8619,7 @@
         <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8689,7 +8689,7 @@
         <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -8710,15 +8710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8973,7 +8964,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -8984,15 +8975,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9011,7 +9003,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9020,4 +9012,12 @@
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5699813-430C-47A5-AA96-21861255CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26282DF4-E4F5-4242-B889-27D141B01249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="48" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="57" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="691">
   <si>
     <t>username</t>
   </si>
@@ -2177,6 +2177,9 @@
   </si>
   <si>
     <t>RFT(Renal Function Tests)</t>
+  </si>
+  <si>
+    <t>Cochlear Implantation (7/31/2025, left)</t>
   </si>
 </sst>
 </file>
@@ -3736,7 +3739,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>21/09/2025</v>
+        <v>18/10/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3815,7 +3818,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>21/09/2025</v>
+        <v>18/10/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -4061,7 +4064,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45921</v>
+        <v>45948</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5571,7 +5574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C5A93-3712-47E8-A929-16017ECD465E}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6800,7 +6803,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>21/09/2025</v>
+        <v>18/10/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -7014,10 +7017,10 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B21E0-6337-4D24-89BA-CCC72B4CE178}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7094,7 +7097,7 @@
         <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>690</v>
       </c>
       <c r="D2" t="s">
         <v>446</v>
@@ -7135,6 +7138,16 @@
       </c>
       <c r="O2" s="5" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8710,6 +8723,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8964,27 +8997,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9001,23 +9033,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26282DF4-E4F5-4242-B889-27D141B01249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63989498-38BF-4628-BDF6-1CE090AA3A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="57" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="60" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="692">
   <si>
     <t>username</t>
   </si>
@@ -2180,6 +2180,9 @@
   </si>
   <si>
     <t>Cochlear Implantation (7/31/2025, left)</t>
+  </si>
+  <si>
+    <t>Cochlear Implantation (01/08/2025, Left)</t>
   </si>
 </sst>
 </file>
@@ -3739,7 +3742,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>18/10/2025</v>
+        <v>01/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3818,7 +3821,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>18/10/2025</v>
+        <v>01/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -4064,7 +4067,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45948</v>
+        <v>45962</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5448,7 +5451,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5535,7 +5538,7 @@
         <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>100</v>
@@ -6803,7 +6806,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>18/10/2025</v>
+        <v>01/11/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -7020,7 +7023,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7097,7 +7100,7 @@
         <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
         <v>446</v>
@@ -8723,26 +8726,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8997,26 +8980,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9033,4 +9017,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63989498-38BF-4628-BDF6-1CE090AA3A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2862615-6BC1-4098-8EED-5B866D9D0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="60" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="42" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="694">
   <si>
     <t>username</t>
   </si>
@@ -2183,6 +2183,12 @@
   </si>
   <si>
     <t>Cochlear Implantation (01/08/2025, Left)</t>
+  </si>
+  <si>
+    <t>Routine</t>
+  </si>
+  <si>
+    <t>Urgent</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3526,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3748,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>01/11/2025</v>
+        <v>12/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3821,7 +3827,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>01/11/2025</v>
+        <v>12/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -4067,7 +4073,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45962</v>
+        <v>45973</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5451,7 +5457,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5556,7 +5562,7 @@
         <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>302</v>
+        <v>692</v>
       </c>
       <c r="O2" t="s">
         <v>301</v>
@@ -5577,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C5A93-3712-47E8-A929-16017ECD465E}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,7 +5703,7 @@
         <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>302</v>
+        <v>693</v>
       </c>
       <c r="O2" t="s">
         <v>301</v>
@@ -6433,7 +6439,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,7 +6812,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>01/11/2025</v>
+        <v>12/11/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -7022,7 +7028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B21E0-6337-4D24-89BA-CCC72B4CE178}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -8726,6 +8732,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8980,27 +9006,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9017,23 +9042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2862615-6BC1-4098-8EED-5B866D9D0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A19C68-4535-42B4-86C5-95DEBD4F272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="42" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="45" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -2068,9 +2068,6 @@
     <t>Rash</t>
   </si>
   <si>
-    <t>Conditions</t>
-  </si>
-  <si>
     <t>Asthmatic bronchitis</t>
   </si>
   <si>
@@ -2189,6 +2186,9 @@
   </si>
   <si>
     <t>Urgent</t>
+  </si>
+  <si>
+    <t>Past Medical History</t>
   </si>
 </sst>
 </file>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/11/2025</v>
+        <v>22/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/11/2025</v>
+        <v>22/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45973</v>
+        <v>45983</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5529,7 +5529,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>204</v>
@@ -5562,7 +5562,7 @@
         <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O2" t="s">
         <v>301</v>
@@ -5583,7 +5583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C5A93-3712-47E8-A929-16017ECD465E}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -5670,7 +5670,7 @@
         <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>308</v>
@@ -5703,7 +5703,7 @@
         <v>303</v>
       </c>
       <c r="N2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O2" t="s">
         <v>301</v>
@@ -5737,7 +5737,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,16 +5771,16 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
         <v>653</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>322</v>
@@ -5976,7 +5976,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,10 +6010,10 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
         <v>653</v>
-      </c>
-      <c r="B2" t="s">
-        <v>654</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>320</v>
@@ -6037,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0A6C0-CF2F-48B8-BAC5-F3E5690001A5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
         <v>653</v>
-      </c>
-      <c r="B2" t="s">
-        <v>654</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>12/11/2025</v>
+        <v>22/11/2025</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -6839,7 +6839,7 @@
         <v>418</v>
       </c>
       <c r="L2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +7106,7 @@
         <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D2" t="s">
         <v>446</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8452,111 +8452,111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" t="s">
         <v>658</v>
-      </c>
-      <c r="B1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>314</v>
@@ -8564,18 +8564,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -8732,17 +8732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8751,7 +8740,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -9006,18 +8995,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9025,7 +9014,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9042,4 +9031,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A19C68-4535-42B4-86C5-95DEBD4F272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D50C7E-62B9-4637-993C-059C83A4B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="45" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>Edit for Notes</t>
   </si>
   <si>
-    <t>Examination</t>
-  </si>
-  <si>
     <t>question_name</t>
   </si>
   <si>
@@ -2189,6 +2186,9 @@
   </si>
   <si>
     <t>Past Medical History</t>
+  </si>
+  <si>
+    <t>Examinations</t>
   </si>
 </sst>
 </file>
@@ -2596,26 +2596,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" t="s">
         <v>636</v>
-      </c>
-      <c r="B2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
         <v>636</v>
-      </c>
-      <c r="B4" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -2630,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E5CD-63B5-4779-9930-5C9E9312DCA8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -2684,7 +2684,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -2713,7 +2713,7 @@
         <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F2" t="s">
         <v>168</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -2882,10 +2882,10 @@
         <v>136</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>150</v>
@@ -3082,7 +3082,7 @@
         <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
         <v>158</v>
@@ -3108,22 +3108,22 @@
         <v>159</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M2" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3429,22 +3429,22 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>650</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3564,7 +3564,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3627,7 +3627,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3678,7 +3678,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3754,13 +3754,13 @@
         <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3921,22 +3921,22 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
         <v>207</v>
-      </c>
-      <c r="G1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" t="s">
-        <v>208</v>
       </c>
       <c r="I1" t="s">
         <v>94</v>
@@ -3945,60 +3945,60 @@
         <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" t="s">
-        <v>203</v>
-      </c>
       <c r="N1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4034,19 +4034,19 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" t="s">
-        <v>208</v>
       </c>
       <c r="H1" t="s">
         <v>94</v>
@@ -4055,21 +4055,21 @@
         <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" t="s">
         <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
@@ -4079,28 +4079,28 @@
         <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4178,54 +4178,54 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" t="s">
         <v>226</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>227</v>
-      </c>
-      <c r="M1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" t="s">
         <v>230</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>231</v>
-      </c>
-      <c r="F2" t="s">
-        <v>232</v>
       </c>
       <c r="G2">
         <v>57749615244</v>
@@ -4234,19 +4234,19 @@
         <v>82</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" t="s">
         <v>233</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>234</v>
-      </c>
-      <c r="M2" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
@@ -4313,66 +4313,66 @@
         <v>128</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" t="s">
         <v>226</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>227</v>
-      </c>
-      <c r="M1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <v>57749615244</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" t="s">
         <v>233</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>234</v>
-      </c>
-      <c r="M2" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4449,57 +4449,57 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
         <v>244</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" t="s">
         <v>246</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>158</v>
@@ -4547,57 +4547,57 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>163</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4675,7 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
@@ -4686,19 +4686,19 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
         <v>257</v>
-      </c>
-      <c r="E2" t="s">
-        <v>258</v>
       </c>
       <c r="F2">
         <v>5774961523</v>
@@ -4733,7 +4733,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4817,7 +4817,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>261</v>
-      </c>
-      <c r="D2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4866,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4874,16 +4874,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4942,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5029,21 +5029,21 @@
         <v>180</v>
       </c>
       <c r="AG1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -5061,10 +5061,10 @@
         <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="L2" t="s">
         <v>176</v>
@@ -5124,7 +5124,7 @@
         <v>181</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -5198,7 +5198,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5247,7 +5247,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5255,16 +5255,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5300,13 +5300,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5337,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5345,16 +5345,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5385,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5393,16 +5393,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5438,13 +5438,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5479,69 +5479,69 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>295</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>296</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>297</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
         <v>117</v>
@@ -5550,28 +5550,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5608,81 +5608,81 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>295</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>296</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" t="s">
-        <v>298</v>
-      </c>
       <c r="R1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" t="s">
         <v>311</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>312</v>
       </c>
-      <c r="T1" t="s">
-        <v>313</v>
-      </c>
       <c r="U1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" t="s">
-        <v>309</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5691,40 +5691,40 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5757,13 +5757,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5771,27 +5771,27 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>655</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" t="s">
         <v>322</v>
-      </c>
-      <c r="F2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5840,7 +5840,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="str">
         <f>AddMedication!B2</f>
@@ -5912,7 +5912,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -5996,13 +5996,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -6010,22 +6010,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6037,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0A6C0-CF2F-48B8-BAC5-F3E5690001A5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -6101,21 +6101,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>328</v>
-      </c>
-      <c r="D2" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6151,21 +6151,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>328</v>
-      </c>
-      <c r="D2" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6201,13 +6201,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6241,96 +6241,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
         <v>331</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>332</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>333</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>334</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>335</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>336</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>337</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>338</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>339</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>341</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>342</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>343</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>344</v>
-      </c>
-      <c r="O1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" t="s">
         <v>350</v>
       </c>
-      <c r="F2" t="s">
-        <v>351</v>
-      </c>
       <c r="G2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H2" t="s">
         <v>98</v>
       </c>
       <c r="I2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" t="s">
         <v>352</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>353</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>354</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" t="s">
         <v>356</v>
-      </c>
-      <c r="O2" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6361,72 +6361,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" t="s">
-        <v>360</v>
-      </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" t="s">
         <v>343</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>344</v>
-      </c>
-      <c r="K1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" t="s">
         <v>356</v>
-      </c>
-      <c r="K2" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6467,93 +6467,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
         <v>370</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>371</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>372</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>373</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>374</v>
       </c>
-      <c r="H1" t="s">
-        <v>375</v>
-      </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N1" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" t="s">
         <v>392</v>
-      </c>
-      <c r="O1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N2" t="s">
         <v>395</v>
       </c>
-      <c r="B2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" t="s">
-        <v>391</v>
-      </c>
-      <c r="N2" t="s">
-        <v>396</v>
-      </c>
       <c r="O2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6594,93 +6594,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
         <v>370</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>371</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>372</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>373</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>374</v>
       </c>
-      <c r="H1" t="s">
-        <v>375</v>
-      </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N1" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" t="s">
         <v>392</v>
-      </c>
-      <c r="O1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="s">
         <v>376</v>
       </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
       <c r="E2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" t="s">
         <v>397</v>
       </c>
-      <c r="F2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" t="s">
         <v>398</v>
       </c>
-      <c r="I2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N2" t="s">
         <v>399</v>
       </c>
-      <c r="L2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" t="s">
-        <v>391</v>
-      </c>
-      <c r="N2" t="s">
-        <v>400</v>
-      </c>
       <c r="O2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="str">
         <f>EditMedication!B2</f>
@@ -6770,76 +6770,76 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
         <v>401</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>402</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>403</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>404</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>405</v>
       </c>
-      <c r="F1" t="s">
-        <v>406</v>
-      </c>
       <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
         <v>409</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>410</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>412</v>
       </c>
-      <c r="K1" t="s">
-        <v>413</v>
-      </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
         <v>22/11/2025</v>
       </c>
       <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
         <v>407</v>
       </c>
-      <c r="D2" t="s">
-        <v>408</v>
-      </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>117</v>
       </c>
       <c r="H2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" t="s">
         <v>414</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>415</v>
       </c>
-      <c r="J2" t="s">
-        <v>416</v>
-      </c>
       <c r="K2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -6880,63 +6880,63 @@
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>295</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>296</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>297</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>284</v>
-      </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -6945,28 +6945,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7007,16 +7007,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -7053,80 +7053,80 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>430</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>432</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>433</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>434</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>435</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>436</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>437</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>438</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>439</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>440</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>441</v>
-      </c>
-      <c r="O1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
         <v>443</v>
       </c>
-      <c r="B2" t="s">
-        <v>444</v>
-      </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(G2)</f>
         <v>primary</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" t="str">
         <f>LOWER(I2)</f>
         <v>internal</v>
       </c>
       <c r="I2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J2" t="str">
         <f>LOWER(K2)</f>
@@ -7136,27 +7136,27 @@
         <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M2" t="str">
         <f>LOWER(N2)</f>
         <v>implanted</v>
       </c>
       <c r="N2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7194,86 +7194,86 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>430</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P1" t="s">
         <v>452</v>
-      </c>
-      <c r="F1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J1" t="s">
-        <v>436</v>
-      </c>
-      <c r="K1" t="s">
-        <v>437</v>
-      </c>
-      <c r="L1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M1" t="s">
-        <v>439</v>
-      </c>
-      <c r="N1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
         <v>454</v>
       </c>
-      <c r="C2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>455</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(LOWER(H2)," ","")</f>
         <v>firststage</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I2" t="str">
         <f>LOWER(J2)</f>
         <v>external</v>
       </c>
       <c r="J2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(L2)</f>
@@ -7283,17 +7283,17 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N2" t="str">
         <f>LOWER(O2)</f>
         <v>requested</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7326,126 +7326,126 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
         <v>462</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>463</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>464</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>465</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>466</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>467</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>468</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>470</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>471</v>
-      </c>
-      <c r="K1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
         <v>473</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>474</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>475</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>476</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>478</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>479</v>
-      </c>
-      <c r="K2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
         <v>481</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>482</v>
-      </c>
-      <c r="C3" t="s">
-        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" t="s">
         <v>485</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>486</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>487</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>488</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>489</v>
-      </c>
-      <c r="K4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" t="s">
         <v>491</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
         <v>493</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>494</v>
       </c>
-      <c r="E5" t="s">
-        <v>495</v>
-      </c>
       <c r="F5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G5" t="s">
         <v>492</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>493</v>
-      </c>
-      <c r="H5" t="s">
-        <v>494</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -7454,7 +7454,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7494,43 +7494,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
         <v>462</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>463</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>464</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>465</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>466</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>467</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>468</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>470</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>471</v>
       </c>
-      <c r="K1" t="s">
-        <v>472</v>
-      </c>
       <c r="L1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M1" t="s">
         <v>497</v>
-      </c>
-      <c r="M1" t="s">
-        <v>498</v>
       </c>
       <c r="N1" t="s">
         <v>122</v>
@@ -7538,118 +7538,118 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" t="s">
         <v>499</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>500</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>501</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>502</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>503</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>504</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" t="s">
         <v>506</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" t="s">
         <v>508</v>
-      </c>
-      <c r="C3" t="s">
-        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N3" t="s">
         <v>506</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" t="s">
         <v>511</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>512</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>513</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>514</v>
       </c>
-      <c r="K4" t="s">
-        <v>515</v>
-      </c>
       <c r="L4" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N4" t="s">
         <v>506</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" t="s">
         <v>491</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G5" t="s">
         <v>493</v>
       </c>
-      <c r="C5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F5" t="s">
-        <v>493</v>
-      </c>
-      <c r="G5" t="s">
-        <v>494</v>
-      </c>
       <c r="H5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -7658,16 +7658,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N5" t="s">
         <v>506</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N5" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7710,160 +7710,160 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" t="s">
         <v>517</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>518</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>519</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>520</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>521</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>522</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>523</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>524</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>525</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>526</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>527</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>528</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>529</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>530</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>531</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>532</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>533</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>534</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>535</v>
-      </c>
-      <c r="U1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" t="s">
         <v>537</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>538</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>539</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>540</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>541</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>542</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>543</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>544</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>545</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>546</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>547</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>548</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>549</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>550</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>551</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>552</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>553</v>
       </c>
-      <c r="S2" t="s">
-        <v>554</v>
-      </c>
       <c r="U2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" t="s">
         <v>555</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>556</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="O3" t="s">
         <v>557</v>
       </c>
-      <c r="D3" t="s">
-        <v>314</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>558</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>559</v>
-      </c>
-      <c r="U3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="O4" t="s">
         <v>561</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>562</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>563</v>
-      </c>
-      <c r="U4" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -7909,70 +7909,70 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" t="s">
         <v>517</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>518</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>519</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>520</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>521</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>522</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>523</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>524</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>525</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>526</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>527</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>528</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>529</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>530</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>531</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>532</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>533</v>
       </c>
-      <c r="S1" t="s">
-        <v>534</v>
-      </c>
       <c r="T1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
       </c>
       <c r="V1" t="s">
+        <v>564</v>
+      </c>
+      <c r="W1" t="s">
         <v>565</v>
-      </c>
-      <c r="W1" t="s">
-        <v>566</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -7980,93 +7980,93 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" t="s">
         <v>537</v>
       </c>
-      <c r="B2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" t="s">
         <v>568</v>
       </c>
-      <c r="F2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K2" t="s">
         <v>569</v>
       </c>
-      <c r="I2" t="s">
-        <v>548</v>
-      </c>
-      <c r="J2" t="s">
-        <v>549</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>544</v>
+      </c>
+      <c r="M2" t="s">
+        <v>545</v>
+      </c>
+      <c r="N2" t="s">
         <v>570</v>
       </c>
-      <c r="L2" t="s">
-        <v>545</v>
-      </c>
-      <c r="M2" t="s">
-        <v>546</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>571</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>572</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>573</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>574</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>536</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="T2" t="s">
-        <v>537</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="X2" t="s">
         <v>576</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="X2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -8077,45 +8077,45 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V3" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="X3" t="s">
         <v>576</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="X3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="O4" t="s">
         <v>584</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
+        <v>563</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="T4" t="s">
-        <v>564</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>586</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="X4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8157,108 +8157,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" t="s">
         <v>587</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>589</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>590</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>591</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>592</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>593</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>594</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>595</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>596</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>597</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>598</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>599</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>600</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>601</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>602</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" t="s">
         <v>608</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>609</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>610</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>611</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>612</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>613</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>614</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>615</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>616</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>617</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>618</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8314,121 +8314,121 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" t="s">
         <v>587</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" t="s">
         <v>621</v>
       </c>
-      <c r="D1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>591</v>
       </c>
-      <c r="G1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>592</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>593</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>594</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>595</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>596</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>597</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>598</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>599</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>600</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>601</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>602</v>
-      </c>
-      <c r="S1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" t="s">
         <v>604</v>
       </c>
-      <c r="B2" t="s">
-        <v>605</v>
-      </c>
       <c r="C2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D2" t="str">
         <f>LOWER(C2)</f>
         <v>withdrawn</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2" t="s">
+        <v>608</v>
+      </c>
+      <c r="I2" t="s">
         <v>609</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>610</v>
       </c>
-      <c r="J2" t="s">
-        <v>611</v>
-      </c>
       <c r="K2" t="s">
+        <v>623</v>
+      </c>
+      <c r="L2" t="s">
         <v>624</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>625</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>626</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>627</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>628</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>629</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>630</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -8452,130 +8452,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" t="s">
         <v>657</v>
-      </c>
-      <c r="B1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8589,7 +8589,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8609,7 +8609,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -8635,13 +8635,13 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8672,7 +8672,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>693</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>

--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D50C7E-62B9-4637-993C-059C83A4B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62B18E-5BBA-4FE2-A461-44209B011B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="64" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="692">
   <si>
     <t>username</t>
   </si>
@@ -2113,9 +2113,6 @@
     <t>Height (cm)</t>
   </si>
   <si>
-    <t>Height(cm) (cm)</t>
-  </si>
-  <si>
     <t>O/E - respiratory rate (bpm)</t>
   </si>
   <si>
@@ -2138,9 +2135,6 @@
   </si>
   <si>
     <t>160</t>
-  </si>
-  <si>
-    <t>162</t>
   </si>
   <si>
     <t>100</t>
@@ -2630,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E5CD-63B5-4779-9930-5C9E9312DCA8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +2644,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -3748,7 +3742,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>22/11/2025</v>
+        <v>23/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3827,7 +3821,7 @@
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>22/11/2025</v>
+        <v>23/11/2025</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -4073,7 +4067,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45983</v>
+        <v>45984</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -5529,7 +5523,7 @@
         <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>203</v>
@@ -5562,7 +5556,7 @@
         <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O2" t="s">
         <v>300</v>
@@ -5670,7 +5664,7 @@
         <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>307</v>
@@ -5703,7 +5697,7 @@
         <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="O2" t="s">
         <v>300</v>
@@ -5771,7 +5765,7 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
         <v>652</v>
@@ -6010,7 +6004,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
         <v>652</v>
@@ -6060,7 +6054,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
         <v>652</v>
@@ -6812,7 +6806,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>22/11/2025</v>
+        <v>23/11/2025</v>
       </c>
       <c r="C2" t="s">
         <v>406</v>
@@ -7106,7 +7100,7 @@
         <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
         <v>445</v>
@@ -7151,7 +7145,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8438,10 +8432,10 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1409E8F-5957-4174-90DF-2D056EF65E2C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8471,7 +8465,7 @@
         <v>665</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8487,7 +8481,7 @@
         <v>667</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8495,55 +8489,55 @@
         <v>668</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8551,7 +8545,7 @@
         <v>671</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>684</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8559,7 +8553,7 @@
         <v>672</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>313</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8567,15 +8561,7 @@
         <v>673</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8635,7 +8621,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B2" t="s">
         <v>213</v>
@@ -8708,7 +8694,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>646</v>
@@ -8732,15 +8718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -8995,7 +8972,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -9006,15 +8983,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9033,7 +9011,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9042,4 +9020,12 @@
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>